--- a/arduino开发.xlsx
+++ b/arduino开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="常用api" sheetId="1" r:id="rId1"/>
@@ -1408,1169 +1408,6 @@
           </a:br>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-            <a:t>/**************</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
-            <a:t>数字</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-            <a:t>I/O*************/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pinMode(pin,mode); //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>设置引脚输出状态</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pinMode</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数用于配置引脚为输入或输出模式，该函数是一个无返回值函数，函数有两个参数 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pin </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>和 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>mode</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>参数表示所要配置的引脚，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>             mode </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>参数表示设置的模式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>——INPUT(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>输入模式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>OUTPUT(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>输出模式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>INPUT_PULLUP(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>输入模式，且引脚点位拉高</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>);</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>digitalWrite(pin,value); //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>设置引脚的输出数据</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>digitalWrite</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数的作用是设置引脚输出引脚引脚的电平为高电平或地电平。该函数是一个无返回值函数，函数有两个参数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>value</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>          pin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>参数表示所要配置的引脚，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>value</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>参数表示输出电压</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>——HIGH(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>高点平</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>LOW(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>第电平</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>int digitalRead(pin); //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>引脚数据读取</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>digitalRead</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数用在函数为输入情况，可以获取引脚电压的情况</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>——HIGH(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>高电平</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>或</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>LOW(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>低电平</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>           </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>参数 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>参数表示要获取电压值的引脚，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>           </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>该函数返回值为 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>int </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>类型，表示引脚的电压情况。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-            <a:t>/*************</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
-            <a:t>模拟</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-            <a:t>I/O*************/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogRead(pin); //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>读取引脚的电压值</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogRead</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数用于读取引脚的模拟量电压值，每一次读取需要消耗的时间为 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>100us</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>。参数 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>参数表示要获取模拟量电压值的引脚，该函数返回值为 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>int </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>类型，表示模拟量电压值，范围在 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>0~1023</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogWrite(pin,value); //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>设置引脚输出模拟量</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(PWM)</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　通过指定引脚输出模拟量</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(PWM)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>，可用于让</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>LED</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>以不同的亮度点亮或驱动电机以不同的速度旋转。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogWrite()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>输出结束后，该引脚将产生一个稳定的特殊</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>PWM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>波形，直到下次调用 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogWrite()(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>或在同一引脚使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>digitalRead()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>或 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>digitalWrite())</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>PWM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>信号的频率大约是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>490Hz</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　在大多 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>Arduino</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>板（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>ATmega168</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>或</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>ATmega328</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>）上，只有引脚</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>3,5,6,9,10</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>11</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>可以实现该功能。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>AduinoMega</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>上，引脚</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>2~13</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>可以实现该功能。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>Arduino</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>旧版本的板子　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(ATmega8)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>只有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>9,10,11</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>可以使用 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogWrite()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　在使用 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogWrite()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>前，不需要使用 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pinMode()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>来设定引脚。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogWrite</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数与模拟引脚、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogRead</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数没有直接关系。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogReference(type); //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>设置模拟参考电压</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>analogReference</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数的作用是配置引脚的参考电压。在嵌入式应用中引脚获取模拟电压值之后，将根据参考电压将模拟值转换到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>0~1023</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>。该函数为无返回值函数，参考为 　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>mode </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>类型，有 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>3 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>种类型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(DEFAULT/INTERNAL/EXTERNAL)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>，具体含义如下所表示。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>NEFAULT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：预设置，参考电压</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>5V</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>INTERNAL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：低电压模式，使用偏内基准电压源。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>INTERNAL1V1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>1V</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>的内基准电压源</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>只能在 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>ArduinoMega</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>INTERNAL2V56</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>56V</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>的内基准电压源</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>只能在 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>ArduinoMega</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>EXTERNAL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：扩展模式，通过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>AREF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>引脚获取参考电压</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　实际电压 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>= (analogRead(pin)*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>基准电压</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)/1024;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-            <a:t>/*************</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
-            <a:t>高级</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-            <a:t>I/O************/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>shiftOut(dataPin, clockPin, bitOrder, val); //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>将一个数据以此移出</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　这个函数的作用是将一个数据的一个字符组中的字符组中的字符以次移出。从最高有效位</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>最左边</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>或最低有效位</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>最右边</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>开始。依次向数据引脚写入每一个字符，之后时钟引脚被拉高或拉低，指示刚才的数据有效。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　注意：如果链接的设备时钟类型为上升沿，就要确定在调用 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>shiftOut()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>前时钟引脚为低电平，如调用 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>digitalWrite(clockPin,LOW)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>这是一个软件实现的功能。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>Arduino</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>提供了一个硬件实现的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>ISP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数库，它速度更快，但只在特定引脚才会有效。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>dataPin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：数据输出引脚，数据的每一个字符将逐次输出。引脚模式需要设置成输出。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>clockPin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：时钟输出引脚，为数据输出提供时钟，引脚模式需要设置成输出。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>bitOrder</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：数据位移顺序选择字符，该参数为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>byte</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>类型，有两种类型可选择，分别是高位先入 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>MSBFIRST </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>和低位先入 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>LSBFIRST</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>val</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：所有输出的数据</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>shiftOut</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数能够将数据通过串行的方式在引脚上输出，相当于一般意义上的同步串行通信，这是控制器与控制器，控制器与传感器之间常用的一种通信方式。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pulseIn(pin, state, timeout); //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>读取引脚上的脉冲时长</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：读取脉冲的引脚编号</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>state</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：读取引脚的脉冲的电平状态</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>timeout</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>：最大的读取时长</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>已</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>um</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>为单位</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
             <a:t>/************</a:t>
           </a:r>
           <a:r>
@@ -4709,6 +3546,3244 @@
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t>bit();</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/**************</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I/O*************/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pinMode(pin,mode); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置引脚输出状态</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pinMode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数用于配置引脚为输入或输出模式，该函数是一个无返回值函数，函数有两个参数 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pin </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参数表示所要配置的引脚，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>             mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参数表示设置的模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>——INPUT(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OUTPUT(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INPUT_PULLUP(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入模式，且引脚点位拉高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>digitalWrite(pin,value); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置引脚的输出数据</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>digitalWrite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数的作用是设置引脚输出引脚引脚的电平为高电平或地电平。该函数是一个无返回值函数，函数有两个参数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          pin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参数表示所要配置的引脚，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参数表示输出电压</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>——HIGH(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>高点平</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LOW(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>第电平</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int digitalRead(pin); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>引脚数据读取</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>digitalRead</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数用在函数为输入情况，可以获取引脚电压的情况</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>——HIGH(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>高电平</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LOW(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>低电平</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参数 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参数表示要获取电压值的引脚，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>该函数返回值为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型，表示引脚的电压情况。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/*************</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>模拟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I/O*************/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogRead(pin); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>读取引脚的电压值</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogRead</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数用于读取引脚的模拟量电压值，每一次读取需要消耗的时间为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>100us</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。参数 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参数表示要获取模拟量电压值的引脚，该函数返回值为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型，表示模拟量电压值，范围在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0~1023</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogWrite(pin,value); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置引脚输出模拟量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(PWM)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　通过指定引脚输出模拟量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(PWM)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，可用于让</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以不同的亮度点亮或驱动电机以不同的速度旋转。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogWrite()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出结束后，该引脚将产生一个稳定的特殊</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PWM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>波形，直到下次调用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogWrite()(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或在同一引脚使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>digitalRead()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>digitalWrite())</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PWM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>信号的频率大约是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>490Hz</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　在大多 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arduino</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>板（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ATmega168</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ATmega328</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）上，只有引脚</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3,5,6,9,10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以实现该功能。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AduinoMega</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上，引脚</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2~13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以实现该功能。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arduino</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>旧版本的板子　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(ATmega8)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9,10,11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以使用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogWrite()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　在使用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogWrite()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>前，不需要使用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pinMode()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>来设定引脚。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogWrite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数与模拟引脚、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogRead</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数没有直接关系。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogReference(type); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置模拟参考电压</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>analogReference</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数的作用是配置引脚的参考电压。在嵌入式应用中引脚获取模拟电压值之后，将根据参考电压将模拟值转换到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0~1023</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。该函数为无返回值函数，参考为 　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型，有 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>种类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(DEFAULT/INTERNAL/EXTERNAL)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，具体含义如下所表示。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NEFAULT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：预设置，参考电压</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5V</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INTERNAL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：低电压模式，使用偏内基准电压源。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INTERNAL1V1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的内基准电压源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只能在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ArduinoMega</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INTERNAL2V56</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>56V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的内基准电压源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只能在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ArduinoMega</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXTERNAL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：扩展模式，通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AREF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>引脚获取参考电压</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　实际电压 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>= (analogRead(pin)*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>基准电压</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)/1024;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/*************</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>高级</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I/O************/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shiftOut(dataPin, clockPin, bitOrder, val); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将一个数据以此移出</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　这个函数的作用是将一个数据的一个字符组中的字符组中的字符以次移出。从最高有效位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最左边</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或最低有效位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最右边</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>开始。依次向数据引脚写入每一个字符，之后时钟引脚被拉高或拉低，指示刚才的数据有效。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　注意：如果链接的设备时钟类型为上升沿，就要确定在调用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shiftOut()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>前时钟引脚为低电平，如调用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>digitalWrite(clockPin,LOW)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这是一个软件实现的功能。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arduino</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>提供了一个硬件实现的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ISP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数库，它速度更快，但只在特定引脚才会有效。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dataPin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：数据输出引脚，数据的每一个字符将逐次输出。引脚模式需要设置成输出。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>clockPin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：时钟输出引脚，为数据输出提供时钟，引脚模式需要设置成输出。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bitOrder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：数据位移顺序选择字符，该参数为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>byte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型，有两种类型可选择，分别是高位先入 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MSBFIRST </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和低位先入 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LSBFIRST</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>val</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：所有输出的数据</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shiftOut</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数能够将数据通过串行的方式在引脚上输出，相当于一般意义上的同步串行通信，这是控制器与控制器，控制器与传感器之间常用的一种通信方式。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pulseIn(pin, state, timeout); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>读取引脚上的脉冲时长</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：读取脉冲的引脚编号</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>state</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：读取引脚的脉冲的电平状态</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>timeout</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：最大的读取时长</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>已</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>um</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为单位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
         </a:p>
         <a:p>
           <a:r>
@@ -7362,13 +9437,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7377,8 +9452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19050"/>
-          <a:ext cx="9077325" cy="6543675"/>
+          <a:off x="0" y="19049"/>
+          <a:ext cx="9077325" cy="11496675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7514,7 +9589,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7527,215 +9602,176 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    "configurations": [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            "name": "Win32",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            "includePath": [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>C:\\Users\\Administrator\\Documents\\Arduino\l\ibraries**",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                "C:\\Users\\Administrator\\AppData\\Local\\Arduino15\\packages\\esp8266\\tools\\**",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                "C:\\Users\\Administrator\\AppData\\Local\\Arduino15\\packages\\esp8266\\hardware\\esp8266\\2.6.3\\**"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            ],</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            "forcedInclude": [],</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            "intelliSenseMode": "msvc-x64"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    ],</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    "version": 4</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "configurations": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            "name": "Win32",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            "includePath": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                "C:\\Users\\Administrator\\Documents\\Arduino\\libraries\\**",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                "C:\\Users\\Administrator\\AppData\\Local\\Arduino15\\packages\\esp8266\\tools\\**",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                "C:\\Users\\Administrator\\AppData\\Local\\Arduino15\\packages\\esp8266\\hardware\\esp8266\\2.7.4\\**"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            "forcedInclude": [],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            "intelliSenseMode": "msvc-x64"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "version": 4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7745,7 +9781,569 @@
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "board": "esp8266:esp8266:nodemcuv2",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "configuration": "xtal=80,vt=flash,exception=legacy,ssl=all,eesz=4M3M,led=2,ip=lm2f,dbg=Disabled,lvl=None____,wipe=none,baud=921600",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "sketch": "FSBrowser.ino",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "output": "./build"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>arduino</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>安装目录，比如我这里是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>C:\Program Files (x86)\Arduino</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>编辑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>arduino_debug.l4j.ini</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>，在最后一行加入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>-DDEBUG=false</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>然后在文件末尾添加一个空行，保存退出后重启</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>vscode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>就可以去掉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>DEBUG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>调试输出</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arduino</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配置文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "terminal.integrated.rendererType": "dom",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "workbench.sideBar.location": "left",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "window.zoomLevel": 0,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "C_Cpp.updateChannel": "Insiders",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "vscodeGoogleTranslate.preferredLanguage": "Chinese (Simplified)",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "editor.multiCursorModifier": "ctrlCmd",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "editor.columnSelection": false,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "editor.renderControlCharacters": false,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "arduino.path": "C:\\Program Files (x86)\\Arduino\\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "arduino.openPDEFiletype": true,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "files.associations": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        "*.ino": "c"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "arduino.enableUSBDetection": false,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "update.enableWindowsBackgroundUpdates": false,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "update.mode": "none",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "update.showReleaseNotes": false,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "arduino.disableTestingOpen": true,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "arduino.skipHeaderProvider": true,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "arduino.commandPath": "arduino_debug.exe",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "C_Cpp.intelliSenseEngine": "Tag Parser"  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自动补全</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8097,6 +10695,53 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226187</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="2914650"/>
+          <a:ext cx="7084186" cy="3428999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9947,7 +12592,11 @@
             <a:t>，</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>digitalRead</a:t>
           </a:r>
           <a:r>
@@ -9955,7 +12604,11 @@
             <a:t>和</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>digitalWrite</a:t>
           </a:r>
           <a:r>
@@ -10745,7 +13398,31 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>中断类型：更改，上升，下降。 </a:t>
+            <a:t>中断类型：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>CHANGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>RISING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>FALLING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>。 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
@@ -10993,13 +13670,13 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>AnalogRead</a:t>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AnalogRead(A0)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -11010,29 +13687,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>A0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）。裸露的</a:t>
+            <a:t>。裸露的</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -11525,27 +14180,35 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>1. AnalogWrite</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>pin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AnalogWrite ( pin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>，</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>value</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>）在给定的引脚上启用软件</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>value)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>在给定的引脚上启用软件</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
@@ -26049,7 +28712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -26065,7 +28728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -26073,7 +28736,13 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <oleObject progId="包装程序外壳对象" shapeId="4097" r:id="rId4"/>
+    <oleObject progId="包装程序外壳对象" shapeId="4098" r:id="rId5"/>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -26095,13 +28764,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <oleObject progId="包装程序外壳对象" shapeId="2049" r:id="rId4"/>
+    <oleObject progId="包装程序外壳对象" shapeId="2050" r:id="rId5"/>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -26123,15 +28800,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <oleObject progId="包装程序外壳对象" shapeId="1025" r:id="rId4"/>
+    <oleObject progId="包装程序外壳对象" shapeId="1026" r:id="rId5"/>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -26183,7 +28866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>

--- a/arduino开发.xlsx
+++ b/arduino开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="常用api" sheetId="1" r:id="rId1"/>
@@ -3476,6 +3476,146 @@
             <a:rPr lang="zh-CN" altLang="en-US"/>
             <a:t>　　返回值：无。</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" i="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1 string str = "hello"; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2 const char* p = str.data();//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>const </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>或者用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>char * p=(char*)str.data();</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>的形式 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" i="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" i="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1 string str=“world”;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2 const char *p = str.c_str();//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>同上，要加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>或者等号右边用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>char* </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" i="1"/>
         </a:p>
         <a:p>
           <a:r>
@@ -28712,7 +28852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -28728,7 +28868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -28786,13 +28926,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <oleObject progId="包装程序外壳对象" shapeId="5123" r:id="rId4"/>
+  </oleObjects>
 </worksheet>
 </file>
 
